--- a/rna.seasonal.classified.timeseries.aquatic.otus.rna.present.atl.once.xlsx
+++ b/rna.seasonal.classified.timeseries.aquatic.otus.rna.present.atl.once.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B638"/>
+  <dimension ref="A1:B688"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -408,7 +408,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Otu00019</t>
+          <t>Otu00015</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -420,7 +420,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Otu00021</t>
+          <t>Otu00016</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -432,7 +432,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Otu00022</t>
+          <t>Otu00019</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -444,7 +444,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Otu00023</t>
+          <t>Otu00021</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -456,7 +456,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Otu00024</t>
+          <t>Otu00022</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -468,7 +468,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Otu00025</t>
+          <t>Otu00023</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -480,7 +480,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Otu00027</t>
+          <t>Otu00025</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -492,7 +492,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Otu00031</t>
+          <t>Otu00027</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -504,7 +504,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Otu00035</t>
+          <t>Otu00031</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -516,7 +516,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Otu00040</t>
+          <t>Otu00035</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -528,7 +528,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Otu00041</t>
+          <t>Otu00037</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -540,7 +540,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Otu00043</t>
+          <t>Otu00040</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -552,7 +552,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Otu00044</t>
+          <t>Otu00041</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -564,7 +564,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Otu00046</t>
+          <t>Otu00043</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -576,7 +576,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Otu00048</t>
+          <t>Otu00044</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -588,7 +588,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Otu00049</t>
+          <t>Otu00046</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -600,7 +600,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Otu00050</t>
+          <t>Otu00048</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -612,7 +612,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Otu00051</t>
+          <t>Otu00049</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -624,7 +624,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Otu00054</t>
+          <t>Otu00050</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -636,7 +636,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Otu00055</t>
+          <t>Otu00051</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -648,7 +648,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Otu00056</t>
+          <t>Otu00054</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -660,7 +660,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Otu00057</t>
+          <t>Otu00055</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -672,7 +672,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Otu00058</t>
+          <t>Otu00057</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -684,7 +684,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Otu00060</t>
+          <t>Otu00058</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -696,7 +696,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Otu00061</t>
+          <t>Otu00060</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -708,7 +708,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Otu00062</t>
+          <t>Otu00061</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -744,7 +744,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Otu00067</t>
+          <t>Otu00068</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -756,7 +756,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Otu00068</t>
+          <t>Otu00070</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -768,7 +768,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Otu00070</t>
+          <t>Otu00071</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -780,7 +780,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Otu00071</t>
+          <t>Otu00074</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -792,7 +792,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Otu00073</t>
+          <t>Otu00075</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -804,7 +804,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Otu00074</t>
+          <t>Otu00076</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -816,7 +816,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Otu00075</t>
+          <t>Otu00079</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -828,7 +828,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Otu00079</t>
+          <t>Otu00080</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -840,7 +840,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Otu00080</t>
+          <t>Otu00082</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -852,7 +852,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Otu00082</t>
+          <t>Otu00083</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -864,7 +864,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Otu00083</t>
+          <t>Otu00084</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -876,7 +876,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Otu00084</t>
+          <t>Otu00085</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -888,7 +888,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Otu00085</t>
+          <t>Otu00088</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -900,7 +900,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Otu00088</t>
+          <t>Otu00089</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -912,7 +912,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Otu00089</t>
+          <t>Otu00091</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -924,7 +924,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Otu00091</t>
+          <t>Otu00093</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -936,7 +936,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Otu00093</t>
+          <t>Otu00096</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -948,7 +948,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Otu00096</t>
+          <t>Otu00097</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -960,7 +960,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Otu00097</t>
+          <t>Otu00099</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -972,7 +972,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Otu00099</t>
+          <t>Otu00100</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -984,7 +984,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Otu00100</t>
+          <t>Otu00101</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -996,7 +996,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Otu00101</t>
+          <t>Otu00102</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1008,7 +1008,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Otu00102</t>
+          <t>Otu00103</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1020,7 +1020,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Otu00103</t>
+          <t>Otu00104</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1032,7 +1032,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Otu00104</t>
+          <t>Otu00105</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1044,7 +1044,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Otu00105</t>
+          <t>Otu00106</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1056,7 +1056,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Otu00106</t>
+          <t>Otu00107</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1068,7 +1068,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Otu00107</t>
+          <t>Otu00108</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1080,7 +1080,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Otu00108</t>
+          <t>Otu00110</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1092,7 +1092,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Otu00110</t>
+          <t>Otu00111</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1104,7 +1104,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Otu00111</t>
+          <t>Otu00112</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1116,7 +1116,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Otu00112</t>
+          <t>Otu00113</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1128,7 +1128,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Otu00113</t>
+          <t>Otu00114</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1140,7 +1140,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Otu00114</t>
+          <t>Otu00115</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1152,7 +1152,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Otu00115</t>
+          <t>Otu00116</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1164,7 +1164,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Otu00116</t>
+          <t>Otu00117</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1176,7 +1176,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Otu00117</t>
+          <t>Otu00118</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -1188,7 +1188,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Otu00118</t>
+          <t>Otu00120</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1200,7 +1200,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Otu00120</t>
+          <t>Otu00121</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -1212,7 +1212,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Otu00121</t>
+          <t>Otu00123</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -1536,7 +1536,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Otu00164</t>
+          <t>Otu00163</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -1548,7 +1548,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Otu00166</t>
+          <t>Otu00164</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -1560,7 +1560,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Otu00167</t>
+          <t>Otu00166</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -1572,7 +1572,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Otu00168</t>
+          <t>Otu00167</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -1584,7 +1584,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Otu00169</t>
+          <t>Otu00168</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -1596,7 +1596,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Otu00171</t>
+          <t>Otu00169</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -1608,7 +1608,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Otu00172</t>
+          <t>Otu00171</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -1620,7 +1620,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Otu00173</t>
+          <t>Otu00172</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -1632,7 +1632,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Otu00174</t>
+          <t>Otu00173</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -1644,7 +1644,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Otu00176</t>
+          <t>Otu00174</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -1656,7 +1656,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Otu00178</t>
+          <t>Otu00175</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -1668,7 +1668,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Otu00179</t>
+          <t>Otu00176</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -1680,7 +1680,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Otu00180</t>
+          <t>Otu00178</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -1692,7 +1692,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Otu00181</t>
+          <t>Otu00179</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -1704,7 +1704,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Otu00182</t>
+          <t>Otu00180</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -1716,7 +1716,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Otu00183</t>
+          <t>Otu00181</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -1728,7 +1728,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Otu00184</t>
+          <t>Otu00182</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -1740,7 +1740,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Otu00187</t>
+          <t>Otu00183</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -1752,7 +1752,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Otu00188</t>
+          <t>Otu00184</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -1764,7 +1764,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Otu00189</t>
+          <t>Otu00186</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -1776,7 +1776,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Otu00190</t>
+          <t>Otu00187</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -1788,7 +1788,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Otu00191</t>
+          <t>Otu00188</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -1800,7 +1800,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Otu00192</t>
+          <t>Otu00189</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -1812,7 +1812,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Otu00193</t>
+          <t>Otu00191</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -1824,7 +1824,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Otu00195</t>
+          <t>Otu00192</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -1836,7 +1836,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Otu00196</t>
+          <t>Otu00193</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -1848,7 +1848,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Otu00197</t>
+          <t>Otu00195</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -1860,7 +1860,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Otu00198</t>
+          <t>Otu00196</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -1872,7 +1872,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Otu00199</t>
+          <t>Otu00197</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -1884,7 +1884,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Otu00200</t>
+          <t>Otu00198</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -1896,7 +1896,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Otu00202</t>
+          <t>Otu00199</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -1908,7 +1908,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Otu00205</t>
+          <t>Otu00200</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -1920,7 +1920,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Otu00208</t>
+          <t>Otu00202</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -1932,7 +1932,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Otu00209</t>
+          <t>Otu00205</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -1944,7 +1944,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Otu00210</t>
+          <t>Otu00208</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -1956,7 +1956,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Otu00211</t>
+          <t>Otu00209</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -1968,7 +1968,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Otu00212</t>
+          <t>Otu00210</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -1980,7 +1980,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Otu00213</t>
+          <t>Otu00211</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -1992,7 +1992,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Otu00214</t>
+          <t>Otu00212</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -2004,7 +2004,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Otu00215</t>
+          <t>Otu00213</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -2016,7 +2016,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Otu00217</t>
+          <t>Otu00214</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -2028,7 +2028,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Otu00218</t>
+          <t>Otu00215</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -2040,7 +2040,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Otu00219</t>
+          <t>Otu00217</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -2052,7 +2052,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Otu00223</t>
+          <t>Otu00218</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -2064,7 +2064,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Otu00224</t>
+          <t>Otu00220</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -2076,7 +2076,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Otu00225</t>
+          <t>Otu00223</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -2088,7 +2088,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Otu00226</t>
+          <t>Otu00224</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -2100,7 +2100,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Otu00228</t>
+          <t>Otu00225</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -2112,7 +2112,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Otu00229</t>
+          <t>Otu00226</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -2124,7 +2124,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Otu00230</t>
+          <t>Otu00228</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -2136,7 +2136,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Otu00231</t>
+          <t>Otu00229</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -2148,7 +2148,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Otu00232</t>
+          <t>Otu00230</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -2160,7 +2160,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Otu00233</t>
+          <t>Otu00231</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -2172,7 +2172,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Otu00235</t>
+          <t>Otu00232</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -2184,7 +2184,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Otu00236</t>
+          <t>Otu00233</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -2196,7 +2196,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Otu00237</t>
+          <t>Otu00235</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -2208,7 +2208,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Otu00238</t>
+          <t>Otu00236</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -2220,7 +2220,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Otu00239</t>
+          <t>Otu00237</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -2232,7 +2232,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Otu00240</t>
+          <t>Otu00238</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -2244,7 +2244,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Otu00241</t>
+          <t>Otu00239</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -2256,7 +2256,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Otu00243</t>
+          <t>Otu00240</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -2268,7 +2268,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Otu00244</t>
+          <t>Otu00241</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -2280,7 +2280,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Otu00247</t>
+          <t>Otu00243</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -2292,7 +2292,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Otu00248</t>
+          <t>Otu00244</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -2304,7 +2304,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Otu00249</t>
+          <t>Otu00247</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -2316,7 +2316,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Otu00250</t>
+          <t>Otu00248</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -2328,7 +2328,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Otu00251</t>
+          <t>Otu00249</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -2340,7 +2340,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Otu00252</t>
+          <t>Otu00250</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -2352,7 +2352,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Otu00253</t>
+          <t>Otu00251</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -2364,7 +2364,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Otu00254</t>
+          <t>Otu00252</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -2376,7 +2376,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Otu00256</t>
+          <t>Otu00253</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -2388,7 +2388,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Otu00257</t>
+          <t>Otu00254</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -2400,7 +2400,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Otu00258</t>
+          <t>Otu00256</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -2412,7 +2412,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Otu00260</t>
+          <t>Otu00257</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -2424,7 +2424,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Otu00261</t>
+          <t>Otu00258</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -2436,7 +2436,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Otu00262</t>
+          <t>Otu00260</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -2448,7 +2448,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Otu00263</t>
+          <t>Otu00261</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -2460,7 +2460,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Otu00265</t>
+          <t>Otu00262</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -2472,7 +2472,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Otu00266</t>
+          <t>Otu00263</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -2484,7 +2484,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Otu00267</t>
+          <t>Otu00265</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -2496,7 +2496,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Otu00268</t>
+          <t>Otu00266</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -2508,7 +2508,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Otu00270</t>
+          <t>Otu00267</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -2520,7 +2520,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Otu00271</t>
+          <t>Otu00268</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -2532,7 +2532,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Otu00272</t>
+          <t>Otu00270</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -2544,7 +2544,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Otu00273</t>
+          <t>Otu00271</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -2556,7 +2556,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Otu00274</t>
+          <t>Otu00272</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -2568,7 +2568,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Otu00275</t>
+          <t>Otu00273</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -2580,7 +2580,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Otu00276</t>
+          <t>Otu00274</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -2592,7 +2592,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Otu00277</t>
+          <t>Otu00275</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -2604,7 +2604,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Otu00279</t>
+          <t>Otu00276</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -2616,7 +2616,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Otu00281</t>
+          <t>Otu00277</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -2628,7 +2628,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Otu00282</t>
+          <t>Otu00278</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -2640,7 +2640,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Otu00283</t>
+          <t>Otu00279</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -2652,7 +2652,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Otu00284</t>
+          <t>Otu00281</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -2664,7 +2664,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Otu00285</t>
+          <t>Otu00282</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -2676,7 +2676,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Otu00286</t>
+          <t>Otu00283</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -2688,7 +2688,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Otu00287</t>
+          <t>Otu00284</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -2700,7 +2700,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Otu00289</t>
+          <t>Otu00285</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -2712,7 +2712,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Otu00290</t>
+          <t>Otu00286</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -2724,7 +2724,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Otu00291</t>
+          <t>Otu00287</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -2736,7 +2736,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Otu00293</t>
+          <t>Otu00289</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -2748,7 +2748,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Otu00294</t>
+          <t>Otu00290</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -2760,7 +2760,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Otu00296</t>
+          <t>Otu00291</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -2772,7 +2772,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Otu00297</t>
+          <t>Otu00293</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -2784,7 +2784,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Otu00299</t>
+          <t>Otu00294</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -2796,7 +2796,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Otu00300</t>
+          <t>Otu00296</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -2808,7 +2808,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Otu00302</t>
+          <t>Otu00299</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -2820,7 +2820,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Otu00303</t>
+          <t>Otu00300</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -2832,7 +2832,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Otu00304</t>
+          <t>Otu00301</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -2844,7 +2844,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Otu00305</t>
+          <t>Otu00302</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -2856,7 +2856,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Otu00310</t>
+          <t>Otu00303</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -2868,7 +2868,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Otu00311</t>
+          <t>Otu00305</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -2880,7 +2880,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Otu00313</t>
+          <t>Otu00307</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -2892,7 +2892,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Otu00314</t>
+          <t>Otu00310</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -2904,7 +2904,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Otu00315</t>
+          <t>Otu00311</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -2916,7 +2916,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Otu00316</t>
+          <t>Otu00313</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -2928,7 +2928,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Otu00318</t>
+          <t>Otu00314</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -2940,7 +2940,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Otu00320</t>
+          <t>Otu00315</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -2952,7 +2952,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Otu00322</t>
+          <t>Otu00316</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -2964,7 +2964,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Otu00323</t>
+          <t>Otu00318</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -2976,7 +2976,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Otu00324</t>
+          <t>Otu00319</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -2988,7 +2988,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Otu00325</t>
+          <t>Otu00320</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
@@ -3000,7 +3000,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Otu00326</t>
+          <t>Otu00322</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
@@ -3012,7 +3012,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Otu00328</t>
+          <t>Otu00323</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -3024,7 +3024,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Otu00330</t>
+          <t>Otu00324</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -3036,7 +3036,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Otu00331</t>
+          <t>Otu00325</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
@@ -3048,7 +3048,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Otu00332</t>
+          <t>Otu00326</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
@@ -3060,7 +3060,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Otu00334</t>
+          <t>Otu00328</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
@@ -3072,7 +3072,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Otu00335</t>
+          <t>Otu00330</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
@@ -3084,7 +3084,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Otu00336</t>
+          <t>Otu00331</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
@@ -3096,7 +3096,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Otu00337</t>
+          <t>Otu00332</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
@@ -3108,7 +3108,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Otu00338</t>
+          <t>Otu00334</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
@@ -3120,7 +3120,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Otu00339</t>
+          <t>Otu00335</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
@@ -3132,7 +3132,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Otu00340</t>
+          <t>Otu00336</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -3144,7 +3144,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Otu00341</t>
+          <t>Otu00337</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
@@ -3156,7 +3156,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Otu00342</t>
+          <t>Otu00338</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
@@ -3168,7 +3168,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Otu00345</t>
+          <t>Otu00339</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
@@ -3180,7 +3180,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Otu00346</t>
+          <t>Otu00340</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
@@ -3192,7 +3192,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Otu00348</t>
+          <t>Otu00341</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
@@ -3204,7 +3204,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Otu00351</t>
+          <t>Otu00342</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
@@ -3216,7 +3216,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Otu00352</t>
+          <t>Otu00345</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
@@ -3228,7 +3228,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Otu00353</t>
+          <t>Otu00346</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
@@ -3240,7 +3240,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Otu00354</t>
+          <t>Otu00348</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
@@ -3252,7 +3252,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Otu00355</t>
+          <t>Otu00350</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
@@ -3264,7 +3264,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Otu00356</t>
+          <t>Otu00351</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
@@ -3276,7 +3276,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Otu00357</t>
+          <t>Otu00352</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
@@ -3288,7 +3288,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Otu00358</t>
+          <t>Otu00353</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
@@ -3300,7 +3300,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Otu00359</t>
+          <t>Otu00354</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
@@ -3312,7 +3312,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Otu00360</t>
+          <t>Otu00356</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
@@ -3324,7 +3324,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Otu00361</t>
+          <t>Otu00357</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
@@ -3336,7 +3336,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Otu00364</t>
+          <t>Otu00358</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
@@ -3348,7 +3348,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Otu00368</t>
+          <t>Otu00359</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
@@ -3360,7 +3360,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Otu00371</t>
+          <t>Otu00360</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
@@ -3372,7 +3372,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Otu00374</t>
+          <t>Otu00361</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
@@ -3384,7 +3384,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Otu00375</t>
+          <t>Otu00364</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
@@ -3396,7 +3396,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Otu00376</t>
+          <t>Otu00368</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
@@ -3408,7 +3408,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Otu00377</t>
+          <t>Otu00371</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
@@ -3420,7 +3420,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Otu00378</t>
+          <t>Otu00374</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
@@ -3432,7 +3432,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Otu00379</t>
+          <t>Otu00375</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
@@ -3444,7 +3444,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Otu00384</t>
+          <t>Otu00376</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
@@ -3456,7 +3456,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Otu00385</t>
+          <t>Otu00378</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
@@ -3468,7 +3468,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Otu00386</t>
+          <t>Otu00379</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
@@ -3480,7 +3480,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Otu00388</t>
+          <t>Otu00382</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
@@ -3492,7 +3492,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Otu00389</t>
+          <t>Otu00383</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
@@ -3504,7 +3504,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Otu00391</t>
+          <t>Otu00384</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
@@ -3516,7 +3516,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Otu00392</t>
+          <t>Otu00385</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
@@ -3528,7 +3528,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Otu00393</t>
+          <t>Otu00386</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
@@ -3540,7 +3540,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Otu00394</t>
+          <t>Otu00388</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
@@ -3552,7 +3552,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Otu00395</t>
+          <t>Otu00389</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
@@ -3564,7 +3564,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Otu00396</t>
+          <t>Otu00391</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
@@ -3576,7 +3576,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Otu00399</t>
+          <t>Otu00392</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
@@ -3588,7 +3588,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Otu00401</t>
+          <t>Otu00393</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
@@ -3600,7 +3600,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Otu00402</t>
+          <t>Otu00394</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
@@ -3612,7 +3612,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>Otu00404</t>
+          <t>Otu00395</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
@@ -3624,7 +3624,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>Otu00405</t>
+          <t>Otu00396</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
@@ -3636,7 +3636,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Otu00406</t>
+          <t>Otu00399</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
@@ -3648,7 +3648,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>Otu00408</t>
+          <t>Otu00401</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
@@ -3660,7 +3660,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>Otu00409</t>
+          <t>Otu00402</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
@@ -3672,7 +3672,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>Otu00410</t>
+          <t>Otu00403</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
@@ -3684,7 +3684,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>Otu00411</t>
+          <t>Otu00404</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
@@ -3696,7 +3696,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Otu00412</t>
+          <t>Otu00405</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
@@ -3708,7 +3708,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>Otu00413</t>
+          <t>Otu00406</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
@@ -3720,7 +3720,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Otu00414</t>
+          <t>Otu00407</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
@@ -3732,7 +3732,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Otu00416</t>
+          <t>Otu00408</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
@@ -3744,7 +3744,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>Otu00417</t>
+          <t>Otu00409</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
@@ -3756,7 +3756,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Otu00418</t>
+          <t>Otu00410</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
@@ -3768,7 +3768,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>Otu00419</t>
+          <t>Otu00411</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
@@ -3780,7 +3780,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>Otu00420</t>
+          <t>Otu00412</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
@@ -3792,7 +3792,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>Otu00421</t>
+          <t>Otu00413</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
@@ -3804,7 +3804,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Otu00422</t>
+          <t>Otu00414</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
@@ -3816,7 +3816,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Otu00423</t>
+          <t>Otu00416</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
@@ -3828,7 +3828,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>Otu00424</t>
+          <t>Otu00417</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
@@ -3840,7 +3840,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>Otu00429</t>
+          <t>Otu00418</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
@@ -3852,7 +3852,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>Otu00430</t>
+          <t>Otu00419</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
@@ -3864,7 +3864,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>Otu00431</t>
+          <t>Otu00420</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
@@ -3876,7 +3876,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Otu00432</t>
+          <t>Otu00421</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
@@ -3888,7 +3888,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>Otu00433</t>
+          <t>Otu00422</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
@@ -3900,7 +3900,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>Otu00434</t>
+          <t>Otu00423</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
@@ -3912,7 +3912,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>Otu00435</t>
+          <t>Otu00424</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
@@ -3924,7 +3924,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>Otu00438</t>
+          <t>Otu00426</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
@@ -3936,7 +3936,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Otu00439</t>
+          <t>Otu00429</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
@@ -3948,7 +3948,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>Otu00441</t>
+          <t>Otu00430</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
@@ -3960,7 +3960,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>Otu00442</t>
+          <t>Otu00431</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
@@ -3972,7 +3972,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Otu00443</t>
+          <t>Otu00432</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
@@ -3984,7 +3984,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>Otu00444</t>
+          <t>Otu00433</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
@@ -3996,7 +3996,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Otu00445</t>
+          <t>Otu00434</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
@@ -4008,7 +4008,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>Otu00446</t>
+          <t>Otu00435</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
@@ -4020,7 +4020,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>Otu00449</t>
+          <t>Otu00438</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
@@ -4032,7 +4032,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>Otu00450</t>
+          <t>Otu00439</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
@@ -4044,7 +4044,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>Otu00451</t>
+          <t>Otu00440</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
@@ -4056,7 +4056,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Otu00452</t>
+          <t>Otu00441</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
@@ -4068,7 +4068,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>Otu00453</t>
+          <t>Otu00442</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
@@ -4080,7 +4080,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>Otu00456</t>
+          <t>Otu00443</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
@@ -4092,7 +4092,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>Otu00457</t>
+          <t>Otu00444</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
@@ -4104,7 +4104,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>Otu00460</t>
+          <t>Otu00446</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
@@ -4116,7 +4116,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Otu00462</t>
+          <t>Otu00449</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
@@ -4128,7 +4128,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>Otu00463</t>
+          <t>Otu00451</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
@@ -4140,7 +4140,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>Otu00465</t>
+          <t>Otu00452</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
@@ -4152,7 +4152,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>Otu00466</t>
+          <t>Otu00453</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
@@ -4164,7 +4164,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>Otu00467</t>
+          <t>Otu00454</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
@@ -4176,7 +4176,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Otu00468</t>
+          <t>Otu00456</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
@@ -4188,7 +4188,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>Otu00469</t>
+          <t>Otu00457</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
@@ -4200,7 +4200,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>Otu00471</t>
+          <t>Otu00460</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
@@ -4212,7 +4212,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>Otu00473</t>
+          <t>Otu00462</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
@@ -4224,7 +4224,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>Otu00475</t>
+          <t>Otu00463</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
@@ -4236,7 +4236,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Otu00476</t>
+          <t>Otu00465</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
@@ -4248,7 +4248,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>Otu00477</t>
+          <t>Otu00466</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
@@ -4260,7 +4260,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>Otu00478</t>
+          <t>Otu00467</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
@@ -4272,7 +4272,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>Otu00479</t>
+          <t>Otu00469</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
@@ -4284,7 +4284,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>Otu00480</t>
+          <t>Otu00471</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
@@ -4296,7 +4296,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>Otu00481</t>
+          <t>Otu00473</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
@@ -4308,7 +4308,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>Otu00482</t>
+          <t>Otu00475</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
@@ -4320,7 +4320,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>Otu00484</t>
+          <t>Otu00476</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
@@ -4332,7 +4332,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>Otu00485</t>
+          <t>Otu00478</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
@@ -4344,7 +4344,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>Otu00486</t>
+          <t>Otu00480</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
@@ -4356,7 +4356,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>Otu00488</t>
+          <t>Otu00481</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
@@ -4368,7 +4368,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>Otu00490</t>
+          <t>Otu00482</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
@@ -4380,7 +4380,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>Otu00492</t>
+          <t>Otu00484</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
@@ -4392,7 +4392,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>Otu00497</t>
+          <t>Otu00485</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
@@ -4404,7 +4404,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>Otu00498</t>
+          <t>Otu00486</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
@@ -4416,7 +4416,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>Otu00499</t>
+          <t>Otu00488</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
@@ -4428,7 +4428,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>Otu00500</t>
+          <t>Otu00490</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
@@ -4440,7 +4440,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>Otu00502</t>
+          <t>Otu00497</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
@@ -4452,7 +4452,7 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>Otu00508</t>
+          <t>Otu00498</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
@@ -4464,7 +4464,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>Otu00509</t>
+          <t>Otu00499</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
@@ -4476,7 +4476,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>Otu00510</t>
+          <t>Otu00500</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
@@ -4488,7 +4488,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>Otu00511</t>
+          <t>Otu00501</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
@@ -4500,7 +4500,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>Otu00512</t>
+          <t>Otu00508</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
@@ -4512,7 +4512,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>Otu00517</t>
+          <t>Otu00509</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
@@ -4524,7 +4524,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>Otu00518</t>
+          <t>Otu00510</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
@@ -4536,7 +4536,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>Otu00519</t>
+          <t>Otu00511</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
@@ -4548,7 +4548,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>Otu00521</t>
+          <t>Otu00516</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
@@ -4560,7 +4560,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>Otu00523</t>
+          <t>Otu00517</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
@@ -4572,7 +4572,7 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>Otu00526</t>
+          <t>Otu00519</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
@@ -4584,7 +4584,7 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>Otu00527</t>
+          <t>Otu00521</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
@@ -4596,7 +4596,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>Otu00528</t>
+          <t>Otu00523</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
@@ -4608,7 +4608,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>Otu00530</t>
+          <t>Otu00527</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
@@ -4620,7 +4620,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>Otu00531</t>
+          <t>Otu00528</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
@@ -4632,7 +4632,7 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>Otu00535</t>
+          <t>Otu00529</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
@@ -4644,7 +4644,7 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>Otu00537</t>
+          <t>Otu00530</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
@@ -4656,7 +4656,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>Otu00539</t>
+          <t>Otu00531</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
@@ -4668,7 +4668,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>Otu00547</t>
+          <t>Otu00535</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
@@ -4680,7 +4680,7 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>Otu00548</t>
+          <t>Otu00537</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
@@ -4692,7 +4692,7 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>Otu00549</t>
+          <t>Otu00539</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
@@ -4704,7 +4704,7 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>Otu00550</t>
+          <t>Otu00541</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
@@ -4716,7 +4716,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>Otu00552</t>
+          <t>Otu00547</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
@@ -4728,7 +4728,7 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>Otu00554</t>
+          <t>Otu00548</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
@@ -4740,7 +4740,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>Otu00555</t>
+          <t>Otu00549</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
@@ -4752,7 +4752,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>Otu00556</t>
+          <t>Otu00550</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
@@ -4764,7 +4764,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>Otu00560</t>
+          <t>Otu00554</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
@@ -4776,7 +4776,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>Otu00562</t>
+          <t>Otu00555</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
@@ -4788,7 +4788,7 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>Otu00563</t>
+          <t>Otu00556</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
@@ -4800,7 +4800,7 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>Otu00564</t>
+          <t>Otu00560</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
@@ -4812,7 +4812,7 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>Otu00565</t>
+          <t>Otu00562</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
@@ -4824,7 +4824,7 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>Otu00566</t>
+          <t>Otu00563</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
@@ -4836,7 +4836,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>Otu00567</t>
+          <t>Otu00564</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
@@ -4848,7 +4848,7 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>Otu00568</t>
+          <t>Otu00565</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
@@ -4860,7 +4860,7 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>Otu00570</t>
+          <t>Otu00566</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
@@ -4872,7 +4872,7 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>Otu00571</t>
+          <t>Otu00567</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
@@ -4884,7 +4884,7 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>Otu00573</t>
+          <t>Otu00568</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
@@ -4896,7 +4896,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>Otu00574</t>
+          <t>Otu00570</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
@@ -4908,7 +4908,7 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>Otu00575</t>
+          <t>Otu00571</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
@@ -4920,7 +4920,7 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>Otu00577</t>
+          <t>Otu00573</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
@@ -4932,7 +4932,7 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>Otu00578</t>
+          <t>Otu00574</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
@@ -4944,7 +4944,7 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>Otu00579</t>
+          <t>Otu00575</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
@@ -4956,7 +4956,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>Otu00580</t>
+          <t>Otu00577</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
@@ -4968,7 +4968,7 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>Otu00582</t>
+          <t>Otu00578</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
@@ -4980,7 +4980,7 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>Otu00584</t>
+          <t>Otu00579</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
@@ -4992,7 +4992,7 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>Otu00585</t>
+          <t>Otu00580</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
@@ -5004,7 +5004,7 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>Otu00587</t>
+          <t>Otu00581</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
@@ -5016,7 +5016,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>Otu00590</t>
+          <t>Otu00582</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
@@ -5028,7 +5028,7 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>Otu00591</t>
+          <t>Otu00585</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
@@ -5040,7 +5040,7 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>Otu00593</t>
+          <t>Otu00586</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
@@ -5052,7 +5052,7 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>Otu00596</t>
+          <t>Otu00587</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
@@ -5064,7 +5064,7 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>Otu00597</t>
+          <t>Otu00589</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
@@ -5076,7 +5076,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>Otu00598</t>
+          <t>Otu00590</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
@@ -5088,7 +5088,7 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>Otu00599</t>
+          <t>Otu00591</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
@@ -5100,7 +5100,7 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>Otu00600</t>
+          <t>Otu00593</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
@@ -5112,7 +5112,7 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>Otu00601</t>
+          <t>Otu00596</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
@@ -5124,7 +5124,7 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>Otu00603</t>
+          <t>Otu00597</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
@@ -5136,7 +5136,7 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>Otu00604</t>
+          <t>Otu00598</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
@@ -5148,7 +5148,7 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>Otu00606</t>
+          <t>Otu00599</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
@@ -5160,7 +5160,7 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>Otu00607</t>
+          <t>Otu00600</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
@@ -5172,7 +5172,7 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>Otu00608</t>
+          <t>Otu00601</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
@@ -5184,7 +5184,7 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>Otu00612</t>
+          <t>Otu00602</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
@@ -5196,7 +5196,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>Otu00614</t>
+          <t>Otu00603</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
@@ -5208,7 +5208,7 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>Otu00615</t>
+          <t>Otu00606</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
@@ -5220,7 +5220,7 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>Otu00616</t>
+          <t>Otu00607</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
@@ -5232,7 +5232,7 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>Otu00618</t>
+          <t>Otu00608</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
@@ -5244,7 +5244,7 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>Otu00621</t>
+          <t>Otu00609</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
@@ -5256,7 +5256,7 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>Otu00622</t>
+          <t>Otu00611</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
@@ -5268,7 +5268,7 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>Otu00626</t>
+          <t>Otu00612</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
@@ -5280,7 +5280,7 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>Otu00627</t>
+          <t>Otu00614</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
@@ -5292,7 +5292,7 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>Otu00630</t>
+          <t>Otu00615</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
@@ -5304,7 +5304,7 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>Otu00631</t>
+          <t>Otu00616</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
@@ -5316,7 +5316,7 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>Otu00634</t>
+          <t>Otu00618</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
@@ -5328,7 +5328,7 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>Otu00636</t>
+          <t>Otu00621</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
@@ -5340,7 +5340,7 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>Otu00639</t>
+          <t>Otu00622</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
@@ -5352,7 +5352,7 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>Otu00640</t>
+          <t>Otu00623</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
@@ -5364,7 +5364,7 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>Otu00642</t>
+          <t>Otu00626</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
@@ -5376,7 +5376,7 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>Otu00644</t>
+          <t>Otu00630</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
@@ -5388,7 +5388,7 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>Otu00654</t>
+          <t>Otu00631</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
@@ -5400,7 +5400,7 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>Otu00656</t>
+          <t>Otu00634</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
@@ -5412,7 +5412,7 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>Otu00658</t>
+          <t>Otu00638</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
@@ -5424,7 +5424,7 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>Otu00662</t>
+          <t>Otu00639</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
@@ -5436,7 +5436,7 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>Otu00663</t>
+          <t>Otu00640</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
@@ -5448,7 +5448,7 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>Otu00667</t>
+          <t>Otu00642</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
@@ -5460,7 +5460,7 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>Otu00670</t>
+          <t>Otu00644</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
@@ -5472,7 +5472,7 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>Otu00674</t>
+          <t>Otu00647</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
@@ -5484,7 +5484,7 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>Otu00681</t>
+          <t>Otu00651</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
@@ -5496,7 +5496,7 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>Otu00684</t>
+          <t>Otu00652</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
@@ -5508,7 +5508,7 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>Otu00687</t>
+          <t>Otu00653</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
@@ -5520,7 +5520,7 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>Otu00688</t>
+          <t>Otu00654</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
@@ -5532,7 +5532,7 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>Otu00696</t>
+          <t>Otu00656</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
@@ -5544,7 +5544,7 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>Otu00697</t>
+          <t>Otu00663</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
@@ -5556,7 +5556,7 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>Otu00700</t>
+          <t>Otu00666</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
@@ -5568,7 +5568,7 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>Otu00704</t>
+          <t>Otu00667</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
@@ -5580,7 +5580,7 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>Otu00707</t>
+          <t>Otu00670</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
@@ -5592,7 +5592,7 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>Otu00708</t>
+          <t>Otu00674</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
@@ -5604,7 +5604,7 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>Otu00712</t>
+          <t>Otu00677</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
@@ -5616,7 +5616,7 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>Otu00713</t>
+          <t>Otu00679</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
@@ -5628,7 +5628,7 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>Otu00724</t>
+          <t>Otu00680</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
@@ -5640,7 +5640,7 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>Otu00732</t>
+          <t>Otu00681</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
@@ -5652,7 +5652,7 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>Otu00735</t>
+          <t>Otu00683</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
@@ -5664,7 +5664,7 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>Otu00739</t>
+          <t>Otu00684</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
@@ -5676,7 +5676,7 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>Otu00742</t>
+          <t>Otu00686</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
@@ -5688,7 +5688,7 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>Otu00745</t>
+          <t>Otu00688</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
@@ -5700,7 +5700,7 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>Otu00746</t>
+          <t>Otu00689</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
@@ -5712,7 +5712,7 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>Otu00749</t>
+          <t>Otu00692</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
@@ -5724,7 +5724,7 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>Otu00751</t>
+          <t>Otu00696</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
@@ -5736,7 +5736,7 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>Otu00753</t>
+          <t>Otu00700</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
@@ -5748,7 +5748,7 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>Otu00758</t>
+          <t>Otu00701</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
@@ -5760,7 +5760,7 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>Otu00759</t>
+          <t>Otu00704</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
@@ -5772,7 +5772,7 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>Otu00762</t>
+          <t>Otu00706</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
@@ -5784,7 +5784,7 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>Otu00765</t>
+          <t>Otu00707</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
@@ -5796,7 +5796,7 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>Otu00766</t>
+          <t>Otu00708</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
@@ -5808,7 +5808,7 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>Otu00767</t>
+          <t>Otu00709</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
@@ -5820,7 +5820,7 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>Otu00768</t>
+          <t>Otu00711</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
@@ -5832,7 +5832,7 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>Otu00770</t>
+          <t>Otu00712</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
@@ -5844,7 +5844,7 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>Otu00773</t>
+          <t>Otu00713</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
@@ -5856,7 +5856,7 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>Otu00778</t>
+          <t>Otu00721</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
@@ -5868,7 +5868,7 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>Otu00784</t>
+          <t>Otu00724</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
@@ -5880,7 +5880,7 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>Otu00785</t>
+          <t>Otu00731</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
@@ -5892,7 +5892,7 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>Otu00790</t>
+          <t>Otu00732</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
@@ -5904,7 +5904,7 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>Otu00794</t>
+          <t>Otu00737</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
@@ -5916,7 +5916,7 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>Otu00799</t>
+          <t>Otu00738</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
@@ -5928,7 +5928,7 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>Otu00800</t>
+          <t>Otu00739</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
@@ -5940,7 +5940,7 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>Otu00802</t>
+          <t>Otu00742</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
@@ -5952,7 +5952,7 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>Otu00806</t>
+          <t>Otu00745</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
@@ -5964,7 +5964,7 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>Otu00807</t>
+          <t>Otu00747</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
@@ -5976,7 +5976,7 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>Otu00811</t>
+          <t>Otu00751</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
@@ -5988,7 +5988,7 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>Otu00815</t>
+          <t>Otu00753</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
@@ -6000,7 +6000,7 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>Otu00817</t>
+          <t>Otu00758</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
@@ -6012,7 +6012,7 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>Otu00818</t>
+          <t>Otu00759</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
@@ -6024,7 +6024,7 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>Otu00821</t>
+          <t>Otu00762</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
@@ -6036,7 +6036,7 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>Otu00826</t>
+          <t>Otu00763</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
@@ -6048,7 +6048,7 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>Otu00831</t>
+          <t>Otu00765</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
@@ -6060,7 +6060,7 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>Otu00836</t>
+          <t>Otu00766</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
@@ -6072,7 +6072,7 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>Otu00846</t>
+          <t>Otu00767</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
@@ -6084,7 +6084,7 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>Otu00847</t>
+          <t>Otu00769</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
@@ -6096,7 +6096,7 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>Otu00849</t>
+          <t>Otu00770</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
@@ -6108,7 +6108,7 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>Otu00855</t>
+          <t>Otu00773</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
@@ -6120,7 +6120,7 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>Otu00856</t>
+          <t>Otu00775</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
@@ -6132,7 +6132,7 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>Otu00859</t>
+          <t>Otu00778</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
@@ -6144,7 +6144,7 @@
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>Otu00864</t>
+          <t>Otu00779</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
@@ -6156,7 +6156,7 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>Otu00868</t>
+          <t>Otu00784</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
@@ -6168,7 +6168,7 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>Otu00869</t>
+          <t>Otu00785</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
@@ -6180,7 +6180,7 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>Otu00873</t>
+          <t>Otu00787</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
@@ -6192,7 +6192,7 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>Otu00876</t>
+          <t>Otu00788</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
@@ -6204,7 +6204,7 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>Otu00877</t>
+          <t>Otu00789</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
@@ -6216,7 +6216,7 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>Otu00879</t>
+          <t>Otu00790</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
@@ -6228,7 +6228,7 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>Otu00882</t>
+          <t>Otu00794</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
@@ -6240,7 +6240,7 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>Otu00884</t>
+          <t>Otu00799</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
@@ -6252,7 +6252,7 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>Otu00888</t>
+          <t>Otu00802</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
@@ -6264,7 +6264,7 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>Otu00892</t>
+          <t>Otu00804</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
@@ -6276,7 +6276,7 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>Otu00894</t>
+          <t>Otu00806</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
@@ -6288,7 +6288,7 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>Otu00897</t>
+          <t>Otu00808</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
@@ -6300,7 +6300,7 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>Otu00899</t>
+          <t>Otu00813</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
@@ -6312,7 +6312,7 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>Otu00901</t>
+          <t>Otu00815</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
@@ -6324,7 +6324,7 @@
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>Otu00902</t>
+          <t>Otu00817</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
@@ -6336,7 +6336,7 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>Otu00906</t>
+          <t>Otu00818</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
@@ -6348,7 +6348,7 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>Otu00907</t>
+          <t>Otu00819</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
@@ -6360,7 +6360,7 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>Otu00911</t>
+          <t>Otu00820</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
@@ -6372,7 +6372,7 @@
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>Otu00913</t>
+          <t>Otu00821</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
@@ -6384,7 +6384,7 @@
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>Otu00914</t>
+          <t>Otu00826</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
@@ -6396,7 +6396,7 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>Otu00920</t>
+          <t>Otu00829</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
@@ -6408,7 +6408,7 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>Otu00923</t>
+          <t>Otu00836</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
@@ -6420,7 +6420,7 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>Otu00924</t>
+          <t>Otu00837</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
@@ -6432,7 +6432,7 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>Otu00929</t>
+          <t>Otu00847</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
@@ -6444,7 +6444,7 @@
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>Otu00932</t>
+          <t>Otu00849</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
@@ -6456,7 +6456,7 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>Otu00933</t>
+          <t>Otu00855</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
@@ -6468,7 +6468,7 @@
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>Otu00935</t>
+          <t>Otu00856</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
@@ -6480,7 +6480,7 @@
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>Otu00938</t>
+          <t>Otu00859</t>
         </is>
       </c>
       <c r="B511" t="inlineStr">
@@ -6492,7 +6492,7 @@
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>Otu00939</t>
+          <t>Otu00862</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
@@ -6504,7 +6504,7 @@
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>Otu00940</t>
+          <t>Otu00868</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
@@ -6516,7 +6516,7 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>Otu00943</t>
+          <t>Otu00872</t>
         </is>
       </c>
       <c r="B514" t="inlineStr">
@@ -6528,7 +6528,7 @@
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>Otu00964</t>
+          <t>Otu00873</t>
         </is>
       </c>
       <c r="B515" t="inlineStr">
@@ -6540,7 +6540,7 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>Otu00970</t>
+          <t>Otu00876</t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
@@ -6552,7 +6552,7 @@
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>Otu00973</t>
+          <t>Otu00879</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
@@ -6564,7 +6564,7 @@
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>Otu00987</t>
+          <t>Otu00882</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
@@ -6576,7 +6576,7 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>Otu00991</t>
+          <t>Otu00884</t>
         </is>
       </c>
       <c r="B519" t="inlineStr">
@@ -6588,7 +6588,7 @@
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>Otu00993</t>
+          <t>Otu00886</t>
         </is>
       </c>
       <c r="B520" t="inlineStr">
@@ -6600,7 +6600,7 @@
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>Otu01003</t>
+          <t>Otu00890</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
@@ -6612,7 +6612,7 @@
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>Otu01014</t>
+          <t>Otu00893</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
@@ -6624,7 +6624,7 @@
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>Otu01023</t>
+          <t>Otu00894</t>
         </is>
       </c>
       <c r="B523" t="inlineStr">
@@ -6636,7 +6636,7 @@
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>Otu01034</t>
+          <t>Otu00902</t>
         </is>
       </c>
       <c r="B524" t="inlineStr">
@@ -6648,7 +6648,7 @@
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>Otu01038</t>
+          <t>Otu00907</t>
         </is>
       </c>
       <c r="B525" t="inlineStr">
@@ -6660,7 +6660,7 @@
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>Otu01043</t>
+          <t>Otu00908</t>
         </is>
       </c>
       <c r="B526" t="inlineStr">
@@ -6672,7 +6672,7 @@
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>Otu01045</t>
+          <t>Otu00911</t>
         </is>
       </c>
       <c r="B527" t="inlineStr">
@@ -6684,7 +6684,7 @@
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>Otu01046</t>
+          <t>Otu00914</t>
         </is>
       </c>
       <c r="B528" t="inlineStr">
@@ -6696,7 +6696,7 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>Otu01056</t>
+          <t>Otu00920</t>
         </is>
       </c>
       <c r="B529" t="inlineStr">
@@ -6708,7 +6708,7 @@
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>Otu01057</t>
+          <t>Otu00922</t>
         </is>
       </c>
       <c r="B530" t="inlineStr">
@@ -6720,7 +6720,7 @@
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>Otu01065</t>
+          <t>Otu00928</t>
         </is>
       </c>
       <c r="B531" t="inlineStr">
@@ -6732,7 +6732,7 @@
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>Otu01069</t>
+          <t>Otu00929</t>
         </is>
       </c>
       <c r="B532" t="inlineStr">
@@ -6744,7 +6744,7 @@
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>Otu01071</t>
+          <t>Otu00932</t>
         </is>
       </c>
       <c r="B533" t="inlineStr">
@@ -6756,7 +6756,7 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>Otu01072</t>
+          <t>Otu00933</t>
         </is>
       </c>
       <c r="B534" t="inlineStr">
@@ -6768,7 +6768,7 @@
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>Otu01076</t>
+          <t>Otu00935</t>
         </is>
       </c>
       <c r="B535" t="inlineStr">
@@ -6780,7 +6780,7 @@
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>Otu01079</t>
+          <t>Otu00938</t>
         </is>
       </c>
       <c r="B536" t="inlineStr">
@@ -6792,7 +6792,7 @@
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>Otu01082</t>
+          <t>Otu00939</t>
         </is>
       </c>
       <c r="B537" t="inlineStr">
@@ -6804,7 +6804,7 @@
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>Otu01087</t>
+          <t>Otu00941</t>
         </is>
       </c>
       <c r="B538" t="inlineStr">
@@ -6816,7 +6816,7 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>Otu01096</t>
+          <t>Otu00942</t>
         </is>
       </c>
       <c r="B539" t="inlineStr">
@@ -6828,7 +6828,7 @@
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>Otu01107</t>
+          <t>Otu00943</t>
         </is>
       </c>
       <c r="B540" t="inlineStr">
@@ -6840,7 +6840,7 @@
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>Otu01113</t>
+          <t>Otu00947</t>
         </is>
       </c>
       <c r="B541" t="inlineStr">
@@ -6852,7 +6852,7 @@
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>Otu01123</t>
+          <t>Otu00949</t>
         </is>
       </c>
       <c r="B542" t="inlineStr">
@@ -6864,7 +6864,7 @@
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>Otu01134</t>
+          <t>Otu00970</t>
         </is>
       </c>
       <c r="B543" t="inlineStr">
@@ -6876,7 +6876,7 @@
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>Otu01136</t>
+          <t>Otu00973</t>
         </is>
       </c>
       <c r="B544" t="inlineStr">
@@ -6888,7 +6888,7 @@
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>Otu01138</t>
+          <t>Otu00982</t>
         </is>
       </c>
       <c r="B545" t="inlineStr">
@@ -6900,7 +6900,7 @@
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>Otu01139</t>
+          <t>Otu00984</t>
         </is>
       </c>
       <c r="B546" t="inlineStr">
@@ -6912,7 +6912,7 @@
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>Otu01142</t>
+          <t>Otu00987</t>
         </is>
       </c>
       <c r="B547" t="inlineStr">
@@ -6924,7 +6924,7 @@
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>Otu01143</t>
+          <t>Otu00989</t>
         </is>
       </c>
       <c r="B548" t="inlineStr">
@@ -6936,7 +6936,7 @@
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>Otu01158</t>
+          <t>Otu00991</t>
         </is>
       </c>
       <c r="B549" t="inlineStr">
@@ -6948,7 +6948,7 @@
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>Otu01160</t>
+          <t>Otu00993</t>
         </is>
       </c>
       <c r="B550" t="inlineStr">
@@ -6960,7 +6960,7 @@
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>Otu01162</t>
+          <t>Otu00995</t>
         </is>
       </c>
       <c r="B551" t="inlineStr">
@@ -6972,7 +6972,7 @@
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>Otu01164</t>
+          <t>Otu00997</t>
         </is>
       </c>
       <c r="B552" t="inlineStr">
@@ -6984,7 +6984,7 @@
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>Otu01168</t>
+          <t>Otu01022</t>
         </is>
       </c>
       <c r="B553" t="inlineStr">
@@ -6996,7 +6996,7 @@
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>Otu01170</t>
+          <t>Otu01025</t>
         </is>
       </c>
       <c r="B554" t="inlineStr">
@@ -7008,7 +7008,7 @@
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>Otu01177</t>
+          <t>Otu01026</t>
         </is>
       </c>
       <c r="B555" t="inlineStr">
@@ -7020,7 +7020,7 @@
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>Otu01183</t>
+          <t>Otu01033</t>
         </is>
       </c>
       <c r="B556" t="inlineStr">
@@ -7032,7 +7032,7 @@
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>Otu01187</t>
+          <t>Otu01034</t>
         </is>
       </c>
       <c r="B557" t="inlineStr">
@@ -7044,7 +7044,7 @@
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>Otu01193</t>
+          <t>Otu01038</t>
         </is>
       </c>
       <c r="B558" t="inlineStr">
@@ -7056,7 +7056,7 @@
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>Otu01194</t>
+          <t>Otu01041</t>
         </is>
       </c>
       <c r="B559" t="inlineStr">
@@ -7068,7 +7068,7 @@
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>Otu01195</t>
+          <t>Otu01045</t>
         </is>
       </c>
       <c r="B560" t="inlineStr">
@@ -7080,7 +7080,7 @@
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>Otu01197</t>
+          <t>Otu01046</t>
         </is>
       </c>
       <c r="B561" t="inlineStr">
@@ -7092,7 +7092,7 @@
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>Otu01198</t>
+          <t>Otu01056</t>
         </is>
       </c>
       <c r="B562" t="inlineStr">
@@ -7104,7 +7104,7 @@
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>Otu01199</t>
+          <t>Otu01057</t>
         </is>
       </c>
       <c r="B563" t="inlineStr">
@@ -7116,7 +7116,7 @@
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>Otu01210</t>
+          <t>Otu01061</t>
         </is>
       </c>
       <c r="B564" t="inlineStr">
@@ -7128,7 +7128,7 @@
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>Otu01211</t>
+          <t>Otu01065</t>
         </is>
       </c>
       <c r="B565" t="inlineStr">
@@ -7140,7 +7140,7 @@
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>Otu01213</t>
+          <t>Otu01067</t>
         </is>
       </c>
       <c r="B566" t="inlineStr">
@@ -7152,7 +7152,7 @@
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>Otu01224</t>
+          <t>Otu01072</t>
         </is>
       </c>
       <c r="B567" t="inlineStr">
@@ -7164,7 +7164,7 @@
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>Otu01225</t>
+          <t>Otu01073</t>
         </is>
       </c>
       <c r="B568" t="inlineStr">
@@ -7176,7 +7176,7 @@
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>Otu01230</t>
+          <t>Otu01082</t>
         </is>
       </c>
       <c r="B569" t="inlineStr">
@@ -7188,7 +7188,7 @@
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>Otu01232</t>
+          <t>Otu01084</t>
         </is>
       </c>
       <c r="B570" t="inlineStr">
@@ -7200,7 +7200,7 @@
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>Otu01239</t>
+          <t>Otu01090</t>
         </is>
       </c>
       <c r="B571" t="inlineStr">
@@ -7212,7 +7212,7 @@
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>Otu01247</t>
+          <t>Otu01095</t>
         </is>
       </c>
       <c r="B572" t="inlineStr">
@@ -7224,7 +7224,7 @@
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>Otu01256</t>
+          <t>Otu01096</t>
         </is>
       </c>
       <c r="B573" t="inlineStr">
@@ -7236,7 +7236,7 @@
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>Otu01262</t>
+          <t>Otu01102</t>
         </is>
       </c>
       <c r="B574" t="inlineStr">
@@ -7248,7 +7248,7 @@
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>Otu01264</t>
+          <t>Otu01107</t>
         </is>
       </c>
       <c r="B575" t="inlineStr">
@@ -7260,7 +7260,7 @@
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>Otu01266</t>
+          <t>Otu01113</t>
         </is>
       </c>
       <c r="B576" t="inlineStr">
@@ -7272,7 +7272,7 @@
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>Otu01279</t>
+          <t>Otu01115</t>
         </is>
       </c>
       <c r="B577" t="inlineStr">
@@ -7284,7 +7284,7 @@
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>Otu01287</t>
+          <t>Otu01122</t>
         </is>
       </c>
       <c r="B578" t="inlineStr">
@@ -7296,7 +7296,7 @@
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>Otu01305</t>
+          <t>Otu01123</t>
         </is>
       </c>
       <c r="B579" t="inlineStr">
@@ -7308,7 +7308,7 @@
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>Otu01325</t>
+          <t>Otu01136</t>
         </is>
       </c>
       <c r="B580" t="inlineStr">
@@ -7320,7 +7320,7 @@
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>Otu01334</t>
+          <t>Otu01140</t>
         </is>
       </c>
       <c r="B581" t="inlineStr">
@@ -7332,7 +7332,7 @@
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>Otu01335</t>
+          <t>Otu01142</t>
         </is>
       </c>
       <c r="B582" t="inlineStr">
@@ -7344,7 +7344,7 @@
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>Otu01343</t>
+          <t>Otu01143</t>
         </is>
       </c>
       <c r="B583" t="inlineStr">
@@ -7356,7 +7356,7 @@
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>Otu01366</t>
+          <t>Otu01155</t>
         </is>
       </c>
       <c r="B584" t="inlineStr">
@@ -7368,7 +7368,7 @@
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>Otu01369</t>
+          <t>Otu01178</t>
         </is>
       </c>
       <c r="B585" t="inlineStr">
@@ -7380,7 +7380,7 @@
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>Otu01377</t>
+          <t>Otu01187</t>
         </is>
       </c>
       <c r="B586" t="inlineStr">
@@ -7392,7 +7392,7 @@
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>Otu01387</t>
+          <t>Otu01194</t>
         </is>
       </c>
       <c r="B587" t="inlineStr">
@@ -7404,7 +7404,7 @@
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>Otu01399</t>
+          <t>Otu01201</t>
         </is>
       </c>
       <c r="B588" t="inlineStr">
@@ -7416,7 +7416,7 @@
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>Otu01403</t>
+          <t>Otu01210</t>
         </is>
       </c>
       <c r="B589" t="inlineStr">
@@ -7428,7 +7428,7 @@
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>Otu01404</t>
+          <t>Otu01211</t>
         </is>
       </c>
       <c r="B590" t="inlineStr">
@@ -7440,7 +7440,7 @@
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>Otu01407</t>
+          <t>Otu01213</t>
         </is>
       </c>
       <c r="B591" t="inlineStr">
@@ -7452,7 +7452,7 @@
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>Otu01408</t>
+          <t>Otu01216</t>
         </is>
       </c>
       <c r="B592" t="inlineStr">
@@ -7464,7 +7464,7 @@
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>Otu01422</t>
+          <t>Otu01222</t>
         </is>
       </c>
       <c r="B593" t="inlineStr">
@@ -7476,7 +7476,7 @@
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>Otu01430</t>
+          <t>Otu01240</t>
         </is>
       </c>
       <c r="B594" t="inlineStr">
@@ -7488,7 +7488,7 @@
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>Otu01441</t>
+          <t>Otu01245</t>
         </is>
       </c>
       <c r="B595" t="inlineStr">
@@ -7500,7 +7500,7 @@
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>Otu01456</t>
+          <t>Otu01248</t>
         </is>
       </c>
       <c r="B596" t="inlineStr">
@@ -7512,7 +7512,7 @@
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>Otu01466</t>
+          <t>Otu01260</t>
         </is>
       </c>
       <c r="B597" t="inlineStr">
@@ -7524,7 +7524,7 @@
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>Otu01468</t>
+          <t>Otu01261</t>
         </is>
       </c>
       <c r="B598" t="inlineStr">
@@ -7536,7 +7536,7 @@
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>Otu01474</t>
+          <t>Otu01263</t>
         </is>
       </c>
       <c r="B599" t="inlineStr">
@@ -7548,7 +7548,7 @@
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>Otu01486</t>
+          <t>Otu01287</t>
         </is>
       </c>
       <c r="B600" t="inlineStr">
@@ -7560,7 +7560,7 @@
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>Otu01529</t>
+          <t>Otu01297</t>
         </is>
       </c>
       <c r="B601" t="inlineStr">
@@ -7572,7 +7572,7 @@
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>Otu01536</t>
+          <t>Otu01298</t>
         </is>
       </c>
       <c r="B602" t="inlineStr">
@@ -7584,7 +7584,7 @@
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>Otu01539</t>
+          <t>Otu01305</t>
         </is>
       </c>
       <c r="B603" t="inlineStr">
@@ -7596,7 +7596,7 @@
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>Otu01545</t>
+          <t>Otu01319</t>
         </is>
       </c>
       <c r="B604" t="inlineStr">
@@ -7608,7 +7608,7 @@
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>Otu01548</t>
+          <t>Otu01320</t>
         </is>
       </c>
       <c r="B605" t="inlineStr">
@@ -7620,7 +7620,7 @@
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>Otu01570</t>
+          <t>Otu01323</t>
         </is>
       </c>
       <c r="B606" t="inlineStr">
@@ -7632,7 +7632,7 @@
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>Otu01582</t>
+          <t>Otu01324</t>
         </is>
       </c>
       <c r="B607" t="inlineStr">
@@ -7644,7 +7644,7 @@
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>Otu01587</t>
+          <t>Otu01325</t>
         </is>
       </c>
       <c r="B608" t="inlineStr">
@@ -7656,7 +7656,7 @@
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>Otu01597</t>
+          <t>Otu01328</t>
         </is>
       </c>
       <c r="B609" t="inlineStr">
@@ -7668,7 +7668,7 @@
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>Otu01603</t>
+          <t>Otu01329</t>
         </is>
       </c>
       <c r="B610" t="inlineStr">
@@ -7680,7 +7680,7 @@
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>Otu01611</t>
+          <t>Otu01337</t>
         </is>
       </c>
       <c r="B611" t="inlineStr">
@@ -7692,7 +7692,7 @@
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>Otu01616</t>
+          <t>Otu01340</t>
         </is>
       </c>
       <c r="B612" t="inlineStr">
@@ -7704,7 +7704,7 @@
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>Otu01626</t>
+          <t>Otu01341</t>
         </is>
       </c>
       <c r="B613" t="inlineStr">
@@ -7716,7 +7716,7 @@
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>Otu01632</t>
+          <t>Otu01361</t>
         </is>
       </c>
       <c r="B614" t="inlineStr">
@@ -7728,7 +7728,7 @@
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>Otu01634</t>
+          <t>Otu01383</t>
         </is>
       </c>
       <c r="B615" t="inlineStr">
@@ -7740,7 +7740,7 @@
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>Otu01672</t>
+          <t>Otu01388</t>
         </is>
       </c>
       <c r="B616" t="inlineStr">
@@ -7752,7 +7752,7 @@
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>Otu01700</t>
+          <t>Otu01389</t>
         </is>
       </c>
       <c r="B617" t="inlineStr">
@@ -7764,7 +7764,7 @@
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>Otu01702</t>
+          <t>Otu01392</t>
         </is>
       </c>
       <c r="B618" t="inlineStr">
@@ -7776,7 +7776,7 @@
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>Otu01714</t>
+          <t>Otu01397</t>
         </is>
       </c>
       <c r="B619" t="inlineStr">
@@ -7788,7 +7788,7 @@
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>Otu01735</t>
+          <t>Otu01401</t>
         </is>
       </c>
       <c r="B620" t="inlineStr">
@@ -7800,7 +7800,7 @@
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>Otu01741</t>
+          <t>Otu01403</t>
         </is>
       </c>
       <c r="B621" t="inlineStr">
@@ -7812,7 +7812,7 @@
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>Otu01742</t>
+          <t>Otu01410</t>
         </is>
       </c>
       <c r="B622" t="inlineStr">
@@ -7824,7 +7824,7 @@
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>Otu01745</t>
+          <t>Otu01411</t>
         </is>
       </c>
       <c r="B623" t="inlineStr">
@@ -7836,7 +7836,7 @@
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>Otu01753</t>
+          <t>Otu01415</t>
         </is>
       </c>
       <c r="B624" t="inlineStr">
@@ -7848,7 +7848,7 @@
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>Otu01754</t>
+          <t>Otu01420</t>
         </is>
       </c>
       <c r="B625" t="inlineStr">
@@ -7860,7 +7860,7 @@
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>Otu01759</t>
+          <t>Otu01427</t>
         </is>
       </c>
       <c r="B626" t="inlineStr">
@@ -7872,7 +7872,7 @@
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>Otu01791</t>
+          <t>Otu01431</t>
         </is>
       </c>
       <c r="B627" t="inlineStr">
@@ -7884,7 +7884,7 @@
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>Otu01803</t>
+          <t>Otu01437</t>
         </is>
       </c>
       <c r="B628" t="inlineStr">
@@ -7896,7 +7896,7 @@
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>Otu01849</t>
+          <t>Otu01447</t>
         </is>
       </c>
       <c r="B629" t="inlineStr">
@@ -7908,7 +7908,7 @@
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>Otu01867</t>
+          <t>Otu01451</t>
         </is>
       </c>
       <c r="B630" t="inlineStr">
@@ -7920,7 +7920,7 @@
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>Otu01911</t>
+          <t>Otu01456</t>
         </is>
       </c>
       <c r="B631" t="inlineStr">
@@ -7932,7 +7932,7 @@
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>Otu01912</t>
+          <t>Otu01461</t>
         </is>
       </c>
       <c r="B632" t="inlineStr">
@@ -7944,7 +7944,7 @@
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>Otu01974</t>
+          <t>Otu01467</t>
         </is>
       </c>
       <c r="B633" t="inlineStr">
@@ -7956,7 +7956,7 @@
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>Otu02183</t>
+          <t>Otu01492</t>
         </is>
       </c>
       <c r="B634" t="inlineStr">
@@ -7968,7 +7968,7 @@
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>Otu02292</t>
+          <t>Otu01494</t>
         </is>
       </c>
       <c r="B635" t="inlineStr">
@@ -7980,7 +7980,7 @@
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>Otu02491</t>
+          <t>Otu01497</t>
         </is>
       </c>
       <c r="B636" t="inlineStr">
@@ -7992,7 +7992,7 @@
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>Otu02544</t>
+          <t>Otu01508</t>
         </is>
       </c>
       <c r="B637" t="inlineStr">
@@ -8004,10 +8004,610 @@
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>Otu02788</t>
+          <t>Otu01509</t>
         </is>
       </c>
       <c r="B638" t="inlineStr">
+        <is>
+          <t>seasonal</t>
+        </is>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t>Otu01520</t>
+        </is>
+      </c>
+      <c r="B639" t="inlineStr">
+        <is>
+          <t>seasonal</t>
+        </is>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t>Otu01527</t>
+        </is>
+      </c>
+      <c r="B640" t="inlineStr">
+        <is>
+          <t>seasonal</t>
+        </is>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>Otu01542</t>
+        </is>
+      </c>
+      <c r="B641" t="inlineStr">
+        <is>
+          <t>seasonal</t>
+        </is>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>Otu01549</t>
+        </is>
+      </c>
+      <c r="B642" t="inlineStr">
+        <is>
+          <t>seasonal</t>
+        </is>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>Otu01585</t>
+        </is>
+      </c>
+      <c r="B643" t="inlineStr">
+        <is>
+          <t>seasonal</t>
+        </is>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>Otu01635</t>
+        </is>
+      </c>
+      <c r="B644" t="inlineStr">
+        <is>
+          <t>seasonal</t>
+        </is>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>Otu01681</t>
+        </is>
+      </c>
+      <c r="B645" t="inlineStr">
+        <is>
+          <t>seasonal</t>
+        </is>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>Otu01689</t>
+        </is>
+      </c>
+      <c r="B646" t="inlineStr">
+        <is>
+          <t>seasonal</t>
+        </is>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>Otu01693</t>
+        </is>
+      </c>
+      <c r="B647" t="inlineStr">
+        <is>
+          <t>seasonal</t>
+        </is>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>Otu01715</t>
+        </is>
+      </c>
+      <c r="B648" t="inlineStr">
+        <is>
+          <t>seasonal</t>
+        </is>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="inlineStr">
+        <is>
+          <t>Otu01722</t>
+        </is>
+      </c>
+      <c r="B649" t="inlineStr">
+        <is>
+          <t>seasonal</t>
+        </is>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="inlineStr">
+        <is>
+          <t>Otu01731</t>
+        </is>
+      </c>
+      <c r="B650" t="inlineStr">
+        <is>
+          <t>seasonal</t>
+        </is>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="inlineStr">
+        <is>
+          <t>Otu01746</t>
+        </is>
+      </c>
+      <c r="B651" t="inlineStr">
+        <is>
+          <t>seasonal</t>
+        </is>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="inlineStr">
+        <is>
+          <t>Otu01759</t>
+        </is>
+      </c>
+      <c r="B652" t="inlineStr">
+        <is>
+          <t>seasonal</t>
+        </is>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="inlineStr">
+        <is>
+          <t>Otu01774</t>
+        </is>
+      </c>
+      <c r="B653" t="inlineStr">
+        <is>
+          <t>seasonal</t>
+        </is>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="inlineStr">
+        <is>
+          <t>Otu01778</t>
+        </is>
+      </c>
+      <c r="B654" t="inlineStr">
+        <is>
+          <t>seasonal</t>
+        </is>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t>Otu01796</t>
+        </is>
+      </c>
+      <c r="B655" t="inlineStr">
+        <is>
+          <t>seasonal</t>
+        </is>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="inlineStr">
+        <is>
+          <t>Otu01802</t>
+        </is>
+      </c>
+      <c r="B656" t="inlineStr">
+        <is>
+          <t>seasonal</t>
+        </is>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="inlineStr">
+        <is>
+          <t>Otu01828</t>
+        </is>
+      </c>
+      <c r="B657" t="inlineStr">
+        <is>
+          <t>seasonal</t>
+        </is>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="inlineStr">
+        <is>
+          <t>Otu01832</t>
+        </is>
+      </c>
+      <c r="B658" t="inlineStr">
+        <is>
+          <t>seasonal</t>
+        </is>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="inlineStr">
+        <is>
+          <t>Otu01863</t>
+        </is>
+      </c>
+      <c r="B659" t="inlineStr">
+        <is>
+          <t>seasonal</t>
+        </is>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="inlineStr">
+        <is>
+          <t>Otu01878</t>
+        </is>
+      </c>
+      <c r="B660" t="inlineStr">
+        <is>
+          <t>seasonal</t>
+        </is>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="inlineStr">
+        <is>
+          <t>Otu01890</t>
+        </is>
+      </c>
+      <c r="B661" t="inlineStr">
+        <is>
+          <t>seasonal</t>
+        </is>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="inlineStr">
+        <is>
+          <t>Otu01892</t>
+        </is>
+      </c>
+      <c r="B662" t="inlineStr">
+        <is>
+          <t>seasonal</t>
+        </is>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="inlineStr">
+        <is>
+          <t>Otu01910</t>
+        </is>
+      </c>
+      <c r="B663" t="inlineStr">
+        <is>
+          <t>seasonal</t>
+        </is>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="inlineStr">
+        <is>
+          <t>Otu01915</t>
+        </is>
+      </c>
+      <c r="B664" t="inlineStr">
+        <is>
+          <t>seasonal</t>
+        </is>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="inlineStr">
+        <is>
+          <t>Otu01919</t>
+        </is>
+      </c>
+      <c r="B665" t="inlineStr">
+        <is>
+          <t>seasonal</t>
+        </is>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="inlineStr">
+        <is>
+          <t>Otu01921</t>
+        </is>
+      </c>
+      <c r="B666" t="inlineStr">
+        <is>
+          <t>seasonal</t>
+        </is>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="inlineStr">
+        <is>
+          <t>Otu01925</t>
+        </is>
+      </c>
+      <c r="B667" t="inlineStr">
+        <is>
+          <t>seasonal</t>
+        </is>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="inlineStr">
+        <is>
+          <t>Otu01926</t>
+        </is>
+      </c>
+      <c r="B668" t="inlineStr">
+        <is>
+          <t>seasonal</t>
+        </is>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="inlineStr">
+        <is>
+          <t>Otu01937</t>
+        </is>
+      </c>
+      <c r="B669" t="inlineStr">
+        <is>
+          <t>seasonal</t>
+        </is>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="inlineStr">
+        <is>
+          <t>Otu01938</t>
+        </is>
+      </c>
+      <c r="B670" t="inlineStr">
+        <is>
+          <t>seasonal</t>
+        </is>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="inlineStr">
+        <is>
+          <t>Otu01943</t>
+        </is>
+      </c>
+      <c r="B671" t="inlineStr">
+        <is>
+          <t>seasonal</t>
+        </is>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="inlineStr">
+        <is>
+          <t>Otu01960</t>
+        </is>
+      </c>
+      <c r="B672" t="inlineStr">
+        <is>
+          <t>seasonal</t>
+        </is>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="inlineStr">
+        <is>
+          <t>Otu01976</t>
+        </is>
+      </c>
+      <c r="B673" t="inlineStr">
+        <is>
+          <t>seasonal</t>
+        </is>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="inlineStr">
+        <is>
+          <t>Otu01980</t>
+        </is>
+      </c>
+      <c r="B674" t="inlineStr">
+        <is>
+          <t>seasonal</t>
+        </is>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="inlineStr">
+        <is>
+          <t>Otu01982</t>
+        </is>
+      </c>
+      <c r="B675" t="inlineStr">
+        <is>
+          <t>seasonal</t>
+        </is>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="inlineStr">
+        <is>
+          <t>Otu02068</t>
+        </is>
+      </c>
+      <c r="B676" t="inlineStr">
+        <is>
+          <t>seasonal</t>
+        </is>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="inlineStr">
+        <is>
+          <t>Otu02118</t>
+        </is>
+      </c>
+      <c r="B677" t="inlineStr">
+        <is>
+          <t>seasonal</t>
+        </is>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="inlineStr">
+        <is>
+          <t>Otu02158</t>
+        </is>
+      </c>
+      <c r="B678" t="inlineStr">
+        <is>
+          <t>seasonal</t>
+        </is>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="inlineStr">
+        <is>
+          <t>Otu02202</t>
+        </is>
+      </c>
+      <c r="B679" t="inlineStr">
+        <is>
+          <t>seasonal</t>
+        </is>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="inlineStr">
+        <is>
+          <t>Otu02219</t>
+        </is>
+      </c>
+      <c r="B680" t="inlineStr">
+        <is>
+          <t>seasonal</t>
+        </is>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="inlineStr">
+        <is>
+          <t>Otu02295</t>
+        </is>
+      </c>
+      <c r="B681" t="inlineStr">
+        <is>
+          <t>seasonal</t>
+        </is>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="inlineStr">
+        <is>
+          <t>Otu02331</t>
+        </is>
+      </c>
+      <c r="B682" t="inlineStr">
+        <is>
+          <t>seasonal</t>
+        </is>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="inlineStr">
+        <is>
+          <t>Otu02342</t>
+        </is>
+      </c>
+      <c r="B683" t="inlineStr">
+        <is>
+          <t>seasonal</t>
+        </is>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="inlineStr">
+        <is>
+          <t>Otu02382</t>
+        </is>
+      </c>
+      <c r="B684" t="inlineStr">
+        <is>
+          <t>seasonal</t>
+        </is>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="inlineStr">
+        <is>
+          <t>Otu02578</t>
+        </is>
+      </c>
+      <c r="B685" t="inlineStr">
+        <is>
+          <t>seasonal</t>
+        </is>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="inlineStr">
+        <is>
+          <t>Otu02805</t>
+        </is>
+      </c>
+      <c r="B686" t="inlineStr">
+        <is>
+          <t>seasonal</t>
+        </is>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="inlineStr">
+        <is>
+          <t>Otu03047</t>
+        </is>
+      </c>
+      <c r="B687" t="inlineStr">
+        <is>
+          <t>seasonal</t>
+        </is>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="inlineStr">
+        <is>
+          <t>Otu03877</t>
+        </is>
+      </c>
+      <c r="B688" t="inlineStr">
         <is>
           <t>seasonal</t>
         </is>
